--- a/EXCEL_VBA/ALUNOS.xlsx
+++ b/EXCEL_VBA/ALUNOS.xlsx
@@ -5,15 +5,17 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Lucas\Desktop\EXCEL_VBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Lucas\Desktop\Estudos\CURSOS\SQLSERVER\EXCEL_VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DF7BED-BC07-41FA-A80B-47A297A3808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0215697-D483-4745-8BED-FCC982253BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{75788EF4-8D91-42AF-809E-283D95060DF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{75788EF4-8D91-42AF-809E-283D95060DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUNOS" sheetId="1" r:id="rId1"/>
+    <sheet name="CURSOS" sheetId="2" r:id="rId2"/>
+    <sheet name="TURMAS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -138,6 +140,156 @@
   </si>
   <si>
     <t>Joaquim Junior</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>JL32</t>
+  </si>
+  <si>
+    <t>MS21</t>
+  </si>
+  <si>
+    <t>ADN11</t>
+  </si>
+  <si>
+    <t>JT57</t>
+  </si>
+  <si>
+    <t>DS91</t>
+  </si>
+  <si>
+    <t>WB30</t>
+  </si>
+  <si>
+    <t>WJ44</t>
+  </si>
+  <si>
+    <t>WJ78</t>
+  </si>
+  <si>
+    <t>JW23</t>
+  </si>
+  <si>
+    <t>JN77</t>
+  </si>
+  <si>
+    <t>JR98</t>
+  </si>
+  <si>
+    <t>KA45</t>
+  </si>
+  <si>
+    <t>JC01</t>
+  </si>
+  <si>
+    <t>PA78</t>
+  </si>
+  <si>
+    <t>PS61</t>
+  </si>
+  <si>
+    <t>MM23</t>
+  </si>
+  <si>
+    <t>LS20</t>
+  </si>
+  <si>
+    <t>LN56</t>
+  </si>
+  <si>
+    <t>JJ07</t>
+  </si>
+  <si>
+    <t>JS24</t>
+  </si>
+  <si>
+    <t>VJ65</t>
+  </si>
+  <si>
+    <t>VA38</t>
+  </si>
+  <si>
+    <t>AJ42</t>
+  </si>
+  <si>
+    <t>JC34</t>
+  </si>
+  <si>
+    <t>CDS22</t>
+  </si>
+  <si>
+    <t>CA88</t>
+  </si>
+  <si>
+    <t>JN47</t>
+  </si>
+  <si>
+    <t>Técnico em Automação</t>
+  </si>
+  <si>
+    <t>Técnico em Elétrica</t>
+  </si>
+  <si>
+    <t>Técnico em Eletronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Técnico em Mecatrônica </t>
+  </si>
+  <si>
+    <t>Técnico em Administrição</t>
+  </si>
+  <si>
+    <t>Técnico em Quimica</t>
+  </si>
+  <si>
+    <t>Técnico em Enfermagem</t>
+  </si>
+  <si>
+    <t>Técnico em Radiologia</t>
+  </si>
+  <si>
+    <t>Técnico em Farmácia</t>
+  </si>
+  <si>
+    <t>Técnico em Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Técnico em Logística</t>
+  </si>
+  <si>
+    <t>Técnico em Contabilidade</t>
+  </si>
+  <si>
+    <t>Técnico em Mecânica</t>
+  </si>
+  <si>
+    <t>Técnico em Eletrotécnica</t>
+  </si>
+  <si>
+    <t>Técnico em Segurança do Trabalho</t>
+  </si>
+  <si>
+    <t>Técnico em Meio Ambiente</t>
+  </si>
+  <si>
+    <t>Técnico em Rede de Computadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Técnico em Desenvolvimento de Sistemas </t>
+  </si>
+  <si>
+    <t>Técnico em Informática</t>
+  </si>
+  <si>
+    <t>Técnico em Informática para Internet</t>
   </si>
 </sst>
 </file>
@@ -242,22 +394,26 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -268,6 +424,69 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="CommandButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -603,10 +822,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3000D6-EFB7-45C5-B175-C344DF07E0B5}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +836,7 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -630,8 +849,11 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -644,8 +866,11 @@
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -658,8 +883,11 @@
       <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -672,8 +900,11 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -686,8 +917,11 @@
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -700,8 +934,11 @@
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -714,8 +951,11 @@
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -728,8 +968,11 @@
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -742,8 +985,11 @@
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -756,8 +1002,11 @@
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -770,8 +1019,11 @@
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -784,8 +1036,11 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -798,8 +1053,11 @@
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -812,8 +1070,11 @@
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -826,8 +1087,11 @@
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -840,8 +1104,11 @@
       <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -854,8 +1121,11 @@
       <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -868,8 +1138,11 @@
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -882,8 +1155,11 @@
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -896,8 +1172,11 @@
       <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -910,8 +1189,11 @@
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -924,8 +1206,11 @@
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -938,8 +1223,11 @@
       <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -952,8 +1240,11 @@
       <c r="D24" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -966,8 +1257,11 @@
       <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -980,8 +1274,11 @@
       <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -994,8 +1291,11 @@
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -1008,8 +1308,11 @@
       <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -1022,8 +1325,11 @@
       <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -1035,6 +1341,9 @@
       </c>
       <c r="D30" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1049,16 +1358,16 @@
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -1070,4 +1379,253 @@
     </mc:AlternateContent>
   </controls>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE6AECE-CE1D-47BB-9E1E-ABC214CD8D51}">
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>1+A2</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A20" si="0">1+A3</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f>1+A20</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId3" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId3" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7085B7A7-BD09-4744-AB11-73DA1E2C32CD}">
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>